--- a/Colors.xlsx
+++ b/Colors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\Operations_assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C829C8-5305-45F8-8085-19A899C5D04F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1380D379-52CF-45F9-A1DD-18C0D0367C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3366" windowWidth="17280" windowHeight="8994" xr2:uid="{ABBF8E00-37A9-460B-B91D-BE943CBA8793}"/>
+    <workbookView xWindow="10338" yWindow="3432" windowWidth="17280" windowHeight="8994" xr2:uid="{ABBF8E00-37A9-460B-B91D-BE943CBA8793}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>#09568d</t>
   </si>
@@ -47,9 +47,6 @@
     <t>#686b69</t>
   </si>
   <si>
-    <t>#ffbb00</t>
-  </si>
-  <si>
     <t>#f8a300</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>#a2a7ad</t>
   </si>
   <si>
-    <t>#47484a</t>
-  </si>
-  <si>
-    <t>#122b3e</t>
-  </si>
-  <si>
     <t>#646e83</t>
   </si>
   <si>
@@ -89,34 +80,16 @@
     <t>#46554f</t>
   </si>
   <si>
-    <t>#ffaa07</t>
-  </si>
-  <si>
     <t>#a98652</t>
   </si>
   <si>
     <t>#b19083</t>
   </si>
   <si>
-    <t>#874840</t>
-  </si>
-  <si>
-    <t>#a0333a</t>
-  </si>
-  <si>
-    <t>#7e7e87</t>
-  </si>
-  <si>
     <t>#383839</t>
   </si>
   <si>
     <t>#635d41</t>
-  </si>
-  <si>
-    <t>#4b4c50</t>
-  </si>
-  <si>
-    <t>#575c45</t>
   </si>
   <si>
     <t>#987563</t>
@@ -291,7 +264,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="73">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,12 +315,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBB00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF8A300"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -384,18 +351,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF47484A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF122B3E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF646E83"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,12 +381,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFAA07"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA98652"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,24 +393,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF874840"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA0333A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7E7E87"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF383839"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,18 +400,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF635D41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4B4C50"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF575C45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -784,19 +703,19 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -829,51 +748,51 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -907,76 +826,49 @@
     <xf numFmtId="0" fontId="5" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC67DCC7-4964-489B-8738-15A81D3BB476}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1446,592 +1338,561 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="22" t="s">
-        <v>14</v>
+      <c r="A15" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23" t="s">
-        <v>15</v>
+      <c r="A16" s="24" t="s">
+        <v>16</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="24" t="s">
-        <v>16</v>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25" t="s">
-        <v>17</v>
+      <c r="I17" s="28"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="26" t="s">
-        <v>18</v>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="27" t="s">
-        <v>19</v>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="28" t="s">
-        <v>20</v>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="29" t="s">
-        <v>21</v>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="30" t="s">
-        <v>22</v>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="22" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31" t="s">
-        <v>23</v>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="32" t="s">
-        <v>24</v>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33" t="s">
-        <v>25</v>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="34" t="s">
-        <v>26</v>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="35" t="s">
-        <v>27</v>
+      <c r="I27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="36" t="s">
-        <v>28</v>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25" t="s">
-        <v>17</v>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
+      <c r="I31" s="31"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="I32" s="37"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
+      <c r="A33" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="I33" s="38"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="31"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
+      <c r="A34" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="I34" s="39"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="42" t="s">
-        <v>33</v>
+      <c r="A35" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="31"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="40" t="s">
-        <v>34</v>
+      <c r="A36" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="42" t="s">
-        <v>35</v>
+      <c r="A37" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="40" t="s">
-        <v>36</v>
+      <c r="A38" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="1"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="42" t="s">
-        <v>37</v>
+      <c r="A39" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="31"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="40" t="s">
-        <v>38</v>
+      <c r="A40" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="40"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="33"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="42" t="s">
-        <v>39</v>
+      <c r="A41" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="31"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="40" t="s">
-        <v>40</v>
+      <c r="A42" s="33" t="s">
+        <v>38</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="40"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="33"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="42" t="s">
-        <v>41</v>
+      <c r="A43" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="31"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="40" t="s">
-        <v>42</v>
+      <c r="A44" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="40"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="42" t="s">
-        <v>43</v>
+      <c r="A45" s="33" t="s">
+        <v>41</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="42"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="40" t="s">
-        <v>44</v>
+      <c r="A46" s="31" t="s">
+        <v>42</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="40"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="33"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="42" t="s">
-        <v>45</v>
+      <c r="A47" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="42"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="31"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="40" t="s">
-        <v>46</v>
+      <c r="A48" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="40"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="33"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="42" t="s">
-        <v>47</v>
+      <c r="A49" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="42"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="33"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="40" t="s">
-        <v>48</v>
+      <c r="A50" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="40"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="42" t="s">
-        <v>49</v>
+      <c r="A51" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="42"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="42" t="s">
-        <v>50</v>
+      <c r="A52" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="40"/>
+      <c r="I52" s="53"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="40" t="s">
-        <v>51</v>
+      <c r="A53" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="42"/>
+      <c r="K53" s="31"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="42" t="s">
-        <v>52</v>
+      <c r="A54" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="40"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="33"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="40" t="s">
-        <v>53</v>
+      <c r="A55" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="42"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="31"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="42" t="s">
-        <v>54</v>
+      <c r="A56" s="31" t="s">
+        <v>52</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="42"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="33"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="40" t="s">
-        <v>55</v>
+      <c r="A57" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="40"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="31"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="42" t="s">
-        <v>56</v>
+      <c r="A58" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="42"/>
+      <c r="J58" s="58"/>
+      <c r="K58" s="33"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="40" t="s">
-        <v>57</v>
+      <c r="A59" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="I59" s="62"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="31"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="42" t="s">
-        <v>58</v>
+      <c r="A60" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="K60" s="40"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="33"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="40" t="s">
-        <v>59</v>
+      <c r="A61" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="42"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="31"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="42" t="s">
-        <v>60</v>
+      <c r="A62" s="31" t="s">
+        <v>58</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="J62" s="64"/>
-      <c r="K62" s="40"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="33"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="40" t="s">
-        <v>61</v>
+      <c r="A63" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="42"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="31"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="42" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="6"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="40"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="40" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="6"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="42"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="31"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="42" t="s">
-        <v>64</v>
-      </c>
+      <c r="A66" s="6"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="40"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="40" t="s">
-        <v>65</v>
-      </c>
+      <c r="A67" s="6"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="J67" s="69"/>
-      <c r="K67" s="42"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="31"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="42" t="s">
-        <v>66</v>
-      </c>
+      <c r="A68" s="6"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="40"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="40" t="s">
-        <v>67</v>
-      </c>
+      <c r="A69" s="6"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="J69" s="71"/>
-      <c r="K69" s="42"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="42" t="s">
-        <v>68</v>
-      </c>
+      <c r="A70" s="6"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="40"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="6"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="42"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="6"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="40"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="6"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="J73" s="75"/>
-      <c r="K73" s="42"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="6"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="40"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="6"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="42"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="6"/>
@@ -2321,48 +2182,6 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="6"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="6"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="6"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A127" s="6"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="6"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A129" s="6"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="6"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
